--- a/SDET-8_Project/testData/TestData.xlsx
+++ b/SDET-8_Project/testData/TestData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
-    <sheet name="SingUP" sheetId="3" r:id="rId2"/>
+    <sheet name="ff" sheetId="3" r:id="rId2"/>
     <sheet name="addToCart" sheetId="4" r:id="rId3"/>
     <sheet name="addToCartTest" sheetId="5" r:id="rId4"/>
     <sheet name="Org" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +876,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SDET-8_Project/testData/TestData.xlsx
+++ b/SDET-8_Project/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="addToCart" sheetId="4" r:id="rId3"/>
     <sheet name="addToCartTest" sheetId="5" r:id="rId4"/>
     <sheet name="Org" sheetId="2" r:id="rId5"/>
+    <sheet name="testuserAcc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
+  <oleSize ref="A1:O13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="155">
   <si>
     <t>TestID</t>
   </si>
@@ -429,6 +430,66 @@
   </si>
   <si>
     <t>Shankar_</t>
+  </si>
+  <si>
+    <t>A-80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>A-81</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>A-82</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>A-83</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>A-84</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>A-85</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>A-86</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>A-87</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>A-88</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>A-89</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -775,7 +836,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +999,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="A1:C30"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1901,116 @@
       </c>
       <c r="C50" s="3" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1952,4 +2123,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>